--- a/dist/document/dest/2020/10/doctors/185.xlsx
+++ b/dist/document/dest/2020/10/doctors/185.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="1">
-        <v>149400</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>400</v>
       </c>
-      <c r="C3" s="1">
-        <v>1380000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>77000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>234</v>
       </c>
-      <c r="C5" s="1">
-        <v>300690</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>361</v>
       </c>
-      <c r="C6" s="1">
-        <v>2462020</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>215</v>
       </c>
-      <c r="C7" s="1">
-        <v>3713050</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>36100</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>40</v>
       </c>
-      <c r="C9" s="1">
-        <v>230000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>984</v>
       </c>
-      <c r="C10" s="1">
-        <v>10282800</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>284</v>
       </c>
-      <c r="C11" s="1">
-        <v>4810960</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>80</v>
       </c>
-      <c r="C12" s="1">
-        <v>924000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>20</v>
       </c>
-      <c r="C13" s="1">
-        <v>97200</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>646</v>
       </c>
-      <c r="C14" s="1">
-        <v>742900</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="1">
-        <v>48000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>360</v>
       </c>
-      <c r="C16" s="1">
-        <v>1366200</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>1520</v>
       </c>
-      <c r="C17" s="1">
-        <v>18726400</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>60</v>
       </c>
-      <c r="C18" s="1">
-        <v>871200</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>482</v>
       </c>
-      <c r="C19" s="1">
-        <v>1718330</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>10</v>
       </c>
-      <c r="C20" s="1">
-        <v>26450</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>30</v>
       </c>
-      <c r="C21" s="1">
-        <v>231000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>170</v>
       </c>
-      <c r="C22" s="1">
-        <v>977500</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>328</v>
       </c>
-      <c r="C23" s="1">
-        <v>6133600</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>60</v>
       </c>
-      <c r="C24" s="1">
-        <v>193200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>30</v>
       </c>
-      <c r="C25" s="1">
-        <v>138000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>160</v>
       </c>
-      <c r="C26" s="1">
-        <v>344000</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>60</v>
       </c>
-      <c r="C27" s="1">
-        <v>187200</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>20</v>
       </c>
-      <c r="C28" s="1">
-        <v>20000</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>60</v>
       </c>
-      <c r="C29" s="1">
-        <v>72300</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>150</v>
       </c>
-      <c r="C30" s="1">
-        <v>1386000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="1">
-        <v>214500</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>135</v>
       </c>
-      <c r="C32" s="1">
-        <v>1470150</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>9</v>
       </c>
-      <c r="C33" s="1">
-        <v>39780</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>250</v>
       </c>
-      <c r="C34" s="1">
-        <v>2186250</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>438</v>
       </c>
-      <c r="C35" s="1">
-        <v>7901520</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -779,7 +677,7 @@
         <v>7716</v>
       </c>
       <c r="C36" s="1">
-        <v>69457700</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/185.xlsx
+++ b/dist/document/dest/2020/10/doctors/185.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,285 +404,1047 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
+      <c r="C2" s="1">
+        <v>149400</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
+        <v>Alpha Choay (VN)</v>
       </c>
       <c r="B3" s="1">
-        <v>400</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>24900</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>348</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1200600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Buscopan (v) (hyoscine butylbromide)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>234</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>361</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>215</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B8" s="1">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>227700</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Duphalac (Iactulose)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B9" s="1">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <v>485760</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B10" s="1">
-        <v>984</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>151800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Esomaxcare (Esomeprazole 40mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>284</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21850</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Espacox (Celecoxib 200mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>65550</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Exomuc (Acetylcysteine 200mg)</v>
+        <v>Buscopan (v) (hyoscine butylbromide)</v>
       </c>
       <c r="B13" s="1">
         <v>20</v>
       </c>
+      <c r="C13" s="1">
+        <v>25700</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Buscopan (v) (hyoscine butylbromide)</v>
       </c>
       <c r="B14" s="1">
-        <v>646</v>
+        <v>44</v>
+      </c>
+      <c r="C14" s="1">
+        <v>56540</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Glucophage XR 750mg (Metformin hydrochloride)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>77400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Cardival (Valsartan 80mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>360</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>82500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Homan (Ursodeoxycholic 300mg)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>1520</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>127650</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Hueso (Ursodeoxycholic 300mg)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42550</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>482</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>68200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Kaleorid (Potassium 600mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B20" s="1">
         <v>10</v>
       </c>
+      <c r="C20" s="1">
+        <v>68200</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>68200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>170</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>102300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>328</v>
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>170500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>60</v>
+        <v>172</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1173040</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="C25" s="1">
+        <v>231880</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>160</v>
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>68200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Ospexin (Cephalexin) 500mg</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>68200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>172700</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Regurgex (Domperidone 10mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>172700</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>150</v>
+        <v>15</v>
+      </c>
+      <c r="C30" s="1">
+        <v>259050</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
+        <v>259050</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>135</v>
+        <v>105</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1813350</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Transamin 500mg (Tranexamic)</v>
+        <v>Cododamed (Pregabalina 75mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>172700</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Trimebutine Gerda 200mg</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>250</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>51750</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Doxycyclin 100mg</v>
       </c>
       <c r="B35" s="1">
-        <v>438</v>
+        <v>28</v>
+      </c>
+      <c r="C35" s="1">
+        <v>30240</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
+        <v>Duphalac (Iactulose)</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>28750</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>60</v>
+      </c>
+      <c r="C37" s="1">
+        <v>627000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>209000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>209000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1">
+        <v>313500</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>522500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>388</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4054600</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>104500</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>38</v>
+      </c>
+      <c r="C44" s="1">
+        <v>397100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>209000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Esomaxcare (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>338800</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Esomaxcare (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>60</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1016400</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B48" s="1">
+        <v>80</v>
+      </c>
+      <c r="C48" s="1">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B49" s="1">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B50" s="1">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B51" s="1">
+        <v>240</v>
+      </c>
+      <c r="C51" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B52" s="1">
+        <v>40</v>
+      </c>
+      <c r="C52" s="1">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v xml:space="preserve">Fleet Enema 133ml (bơm) </v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1">
+        <v>129800</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>120</v>
+      </c>
+      <c r="C54" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>240</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2956800</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>90</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1108800</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1">
+        <v>369600</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1080</v>
+      </c>
+      <c r="C59" s="1">
+        <v>13305600</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>30</v>
+      </c>
+      <c r="C60" s="1">
+        <v>369600</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>20</v>
+      </c>
+      <c r="C61" s="1">
+        <v>71300</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1">
+        <v>71300</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1">
+        <v>213900</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>30</v>
+      </c>
+      <c r="C64" s="1">
+        <v>106950</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>104</v>
+      </c>
+      <c r="C65" s="1">
+        <v>370760</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>20</v>
+      </c>
+      <c r="C66" s="1">
+        <v>71300</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>110</v>
+      </c>
+      <c r="C67" s="1">
+        <v>847000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>172500</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>172500</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1">
+        <v>172500</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>260</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1495000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>126</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2356200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>20</v>
+      </c>
+      <c r="C75" s="1">
+        <v>152200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Ospexin (Cephalexin) 500mg</v>
+      </c>
+      <c r="B76" s="1">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Ospexin (Cephalexin) 500mg</v>
+      </c>
+      <c r="B77" s="1">
+        <v>40</v>
+      </c>
+      <c r="C77" s="1">
+        <v>124800</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1">
+        <v>175400</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>90</v>
+      </c>
+      <c r="C79" s="1">
+        <v>831600</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>110</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1016400</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45</v>
+      </c>
+      <c r="C81" s="1">
+        <v>321750</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>30</v>
+      </c>
+      <c r="C82" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>75</v>
+      </c>
+      <c r="C83" s="1">
+        <v>816750</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B84" s="1">
+        <v>20</v>
+      </c>
+      <c r="C84" s="1">
+        <v>174900</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B85" s="1">
+        <v>100</v>
+      </c>
+      <c r="C85" s="1">
+        <v>874500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B86" s="1">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1">
+        <v>262350</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B87" s="1">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1">
+        <v>262350</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>40</v>
+      </c>
+      <c r="C88" s="1">
+        <v>721600</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>30</v>
+      </c>
+      <c r="C89" s="1">
+        <v>541200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1">
+        <v>180400</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>180</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3247200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>20</v>
+      </c>
+      <c r="C92" s="1">
+        <v>360800</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>48</v>
+      </c>
+      <c r="C93" s="1">
+        <v>865920</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>20</v>
+      </c>
+      <c r="C94" s="1">
+        <v>360800</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Xatral XL(Alfuzosine 10mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1">
+        <v>88300</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B36" s="1">
-        <v>7716</v>
-      </c>
-      <c r="C36" s="1">
-        <v>NaN</v>
+      <c r="B96" s="1">
+        <v>6016</v>
+      </c>
+      <c r="C96" s="1">
+        <v>53627440</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C96"/>
   </ignoredErrors>
 </worksheet>
 </file>